--- a/mouse-and-kb.xlsx
+++ b/mouse-and-kb.xlsx
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>【rapoo 雷柏】無線輕巧無數字區按鍵三模鍵盤滑鼠組(8000T BK/8000T BK)</t>
+          <t>【ASUS 華碩】ROG Strix Scope Deluxe 茶軸 Cherry RGB 機械式電競鍵盤</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>552</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>【Logitech 羅技】MX Anywhere 3 高效美型行動滑鼠</t>
+          <t>【Logitech 羅技】K580 超薄跨平台藍牙鍵盤+MX Anywhere 3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2690</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>【Logitech 羅技】MX Master 2S 高速滾輪滑鼠(黑色)</t>
+          <t>【Logitech 羅技】羅技 x 馬來貘 癱軟廢在家 M350滑鼠上蓋組</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2390</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>【Logitech 羅技】POP Keys無線機械式鍵盤</t>
+          <t>【Logitech 羅技】K380 多工藍芽鍵盤+M350 鵝卵石無線滑鼠</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2490</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="9">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1032</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1048</v>
+        <v>990</v>
       </c>
     </row>
     <row r="19">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2072</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1890</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="50">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>【B.Friend】B.Friend RB730無線雙模智能鍵盤(附鍵盤保護膜)</t>
+          <t>【Philips 飛利浦】無線鍵盤滑鼠組(SPT6501)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1091</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>【Philips 飛利浦】無線鍵盤滑鼠組(SPT6501)</t>
+          <t>【LEXMA】LK6350 有線抗菌鍵盤(奈米銀抗菌材質)</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>530</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>【LEXMA】LK6350 有線抗菌鍵盤(奈米銀抗菌材質)</t>
+          <t>【CORSAIR 海盜船】K95 RGB PLATINUM XT Cherry MX銀軸 電競鍵盤(機械式/英文PBT鍵帽)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>299</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="61">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6680</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="76">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1690</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="78">
